--- a/Area de Proceso PPQA/HGQA/HGQA_V0.3_2016_JULIO.xlsx
+++ b/Area de Proceso PPQA/HGQA/HGQA_V0.3_2016_JULIO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PDS1\DEV-SOFT\Area de Proceso PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PDS1\DEV-SOFT\Area de Proceso PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="17280" windowHeight="9195" tabRatio="642" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="17280" windowHeight="9195" tabRatio="642"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="209">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -698,9 +698,6 @@
   </si>
   <si>
     <t>SOLACC_V0.1_Solicitud de Accesos</t>
-  </si>
-  <si>
-    <t>REGITCON_V0.1_Registro de Items de Configuracion</t>
   </si>
   <si>
     <t>JULIO</t>
@@ -2587,131 +2584,139 @@
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="28" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="28" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2724,14 +2729,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2744,6 +2741,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2755,18 +2780,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2793,22 +2806,6 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4088,6 +4085,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4137,11 +4135,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="285056784"/>
-        <c:axId val="285057344"/>
+        <c:axId val="248641312"/>
+        <c:axId val="248641704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="285056784"/>
+        <c:axId val="248641312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4181,7 +4179,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285057344"/>
+        <c:crossAx val="248641704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4191,7 +4189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285057344"/>
+        <c:axId val="248641704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4239,7 +4237,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285056784"/>
+        <c:crossAx val="248641312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4253,6 +4251,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4358,6 +4357,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4658,12 +4658,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="285797296"/>
-        <c:axId val="285797856"/>
+        <c:axId val="248642488"/>
+        <c:axId val="248642880"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="285797296"/>
+        <c:axId val="248642488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4692,6 +4692,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4752,7 +4753,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285797856"/>
+        <c:crossAx val="248642880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4762,7 +4763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285797856"/>
+        <c:axId val="248642880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4867,7 +4868,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285797296"/>
+        <c:crossAx val="248642488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4881,6 +4882,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8371,7 +8373,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -8466,7 +8468,7 @@
         <v>148</v>
       </c>
       <c r="G5" s="200" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H5" s="202" t="s">
         <v>149</v>
@@ -8491,7 +8493,7 @@
         <v>148</v>
       </c>
       <c r="G6" s="201" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="73" t="s">
         <v>149</v>
@@ -8516,7 +8518,7 @@
         <v>148</v>
       </c>
       <c r="G7" s="201" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="73" t="s">
         <v>149</v>
@@ -8588,22 +8590,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="82.5" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="216" t="s">
+      <c r="C2" s="224" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="217"/>
-      <c r="E2" s="218"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="226"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="186" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="232" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="224" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="234"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -8615,12 +8617,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="227" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="229"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -8643,10 +8645,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="81"/>
-      <c r="D8" s="222" t="s">
+      <c r="D8" s="230" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="223"/>
+      <c r="E8" s="231"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -8661,10 +8663,10 @@
         <v>88</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="230" t="s">
+      <c r="D10" s="235" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="230"/>
+      <c r="E10" s="235"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -8679,10 +8681,10 @@
         <v>88</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="230" t="s">
+      <c r="D12" s="235" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="230"/>
+      <c r="E12" s="235"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -8697,10 +8699,10 @@
         <v>88</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="230" t="s">
+      <c r="D14" s="235" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="230"/>
+      <c r="E14" s="235"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -8715,10 +8717,10 @@
         <v>88</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="230" t="s">
+      <c r="D16" s="235" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="230"/>
+      <c r="E16" s="235"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -8732,62 +8734,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="218" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="211"/>
-      <c r="D19" s="211"/>
-      <c r="E19" s="212"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="220"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="213" t="s">
+      <c r="C20" s="221" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
+      <c r="D20" s="222"/>
+      <c r="E20" s="223"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="227" t="s">
+      <c r="C21" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="228"/>
-      <c r="E21" s="229"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="211"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="227" t="s">
+      <c r="C22" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="228"/>
-      <c r="E22" s="229"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="211"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="227" t="s">
+      <c r="C23" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="228"/>
-      <c r="E23" s="229"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="211"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="227" t="s">
+      <c r="C24" s="209" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="228"/>
-      <c r="E24" s="229"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="211"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -8800,31 +8802,31 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="218" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="211"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="212"/>
+      <c r="C27" s="219"/>
+      <c r="D27" s="219"/>
+      <c r="E27" s="220"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="213" t="s">
+      <c r="C28" s="221" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="214"/>
-      <c r="E28" s="215"/>
+      <c r="D28" s="222"/>
+      <c r="E28" s="223"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="231" t="s">
+      <c r="B29" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="232"/>
-      <c r="D29" s="232"/>
-      <c r="E29" s="233"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="217"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
@@ -8833,11 +8835,11 @@
       <c r="B30" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="204" t="s">
+      <c r="C30" s="205" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="205"/>
-      <c r="E30" s="206"/>
+      <c r="D30" s="206"/>
+      <c r="E30" s="207"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
@@ -8846,11 +8848,11 @@
       <c r="B31" s="158" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="204" t="s">
+      <c r="C31" s="205" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="205"/>
-      <c r="E31" s="206"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="207"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -8859,11 +8861,11 @@
       <c r="B32" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="204" t="s">
+      <c r="C32" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="205"/>
-      <c r="E32" s="206"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="207"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -8872,11 +8874,11 @@
       <c r="B33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="204" t="s">
+      <c r="C33" s="205" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="205"/>
-      <c r="E33" s="206"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="207"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -8885,174 +8887,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="204" t="s">
+      <c r="C34" s="205" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="205"/>
-      <c r="E34" s="206"/>
+      <c r="D34" s="206"/>
+      <c r="E34" s="207"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="204" t="s">
+      <c r="C35" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="205"/>
-      <c r="E35" s="206"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="207"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="231" t="s">
+      <c r="B36" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="232"/>
-      <c r="D36" s="232"/>
-      <c r="E36" s="233"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="217"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="204" t="s">
+      <c r="C37" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="205"/>
-      <c r="E37" s="206"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="207"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="204" t="s">
+      <c r="C38" s="205" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="205"/>
-      <c r="E38" s="206"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="207"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="204" t="s">
+      <c r="C39" s="205" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="205"/>
-      <c r="E39" s="206"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="207"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="204" t="s">
+      <c r="C40" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="205"/>
-      <c r="E40" s="206"/>
+      <c r="D40" s="206"/>
+      <c r="E40" s="207"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="204" t="s">
+      <c r="C41" s="205" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="205"/>
-      <c r="E41" s="206"/>
+      <c r="D41" s="206"/>
+      <c r="E41" s="207"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="204" t="s">
+      <c r="C42" s="205" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="205"/>
-      <c r="E42" s="206"/>
+      <c r="D42" s="206"/>
+      <c r="E42" s="207"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="204" t="s">
+      <c r="C43" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="205"/>
-      <c r="E43" s="206"/>
+      <c r="D43" s="206"/>
+      <c r="E43" s="207"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="204" t="s">
+      <c r="C44" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="205"/>
-      <c r="E44" s="206"/>
+      <c r="D44" s="206"/>
+      <c r="E44" s="207"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="204" t="s">
+      <c r="C45" s="205" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="205"/>
-      <c r="E45" s="206"/>
+      <c r="D45" s="206"/>
+      <c r="E45" s="207"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="204" t="s">
+      <c r="C46" s="205" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="205"/>
-      <c r="E46" s="206"/>
+      <c r="D46" s="206"/>
+      <c r="E46" s="207"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="204" t="s">
+      <c r="C47" s="205" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="205"/>
-      <c r="E47" s="206"/>
+      <c r="D47" s="206"/>
+      <c r="E47" s="207"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="204" t="s">
+      <c r="C48" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="205"/>
-      <c r="E48" s="206"/>
+      <c r="D48" s="206"/>
+      <c r="E48" s="207"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="204" t="s">
+      <c r="C49" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="205"/>
-      <c r="E49" s="206"/>
+      <c r="D49" s="206"/>
+      <c r="E49" s="207"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -9085,23 +9087,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="210" t="s">
+      <c r="B52" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="211"/>
-      <c r="D52" s="211"/>
-      <c r="E52" s="212"/>
+      <c r="C52" s="219"/>
+      <c r="D52" s="219"/>
+      <c r="E52" s="220"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="213" t="s">
+      <c r="C53" s="221" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="214"/>
-      <c r="E53" s="215"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -9116,132 +9118,132 @@
       <c r="B54" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="204" t="s">
+      <c r="C54" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="205"/>
-      <c r="E54" s="206"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="207"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="204" t="s">
+      <c r="C55" s="205" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="205"/>
-      <c r="E55" s="206"/>
+      <c r="D55" s="206"/>
+      <c r="E55" s="207"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="204" t="s">
+      <c r="C56" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="205"/>
-      <c r="E56" s="206"/>
+      <c r="D56" s="206"/>
+      <c r="E56" s="207"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="204" t="s">
+      <c r="C57" s="205" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="208"/>
-      <c r="E57" s="209"/>
+      <c r="D57" s="212"/>
+      <c r="E57" s="213"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="204" t="s">
+      <c r="C58" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="208"/>
-      <c r="E58" s="209"/>
+      <c r="D58" s="212"/>
+      <c r="E58" s="213"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="204" t="s">
+      <c r="C59" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="208"/>
-      <c r="E59" s="209"/>
+      <c r="D59" s="212"/>
+      <c r="E59" s="213"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="204" t="s">
+      <c r="C60" s="205" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="208"/>
-      <c r="E60" s="209"/>
+      <c r="D60" s="212"/>
+      <c r="E60" s="213"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="207" t="s">
+      <c r="C61" s="214" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="208"/>
-      <c r="E61" s="209"/>
+      <c r="D61" s="212"/>
+      <c r="E61" s="213"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="204" t="s">
+      <c r="C62" s="205" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="208"/>
-      <c r="E62" s="209"/>
+      <c r="D62" s="212"/>
+      <c r="E62" s="213"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="207" t="s">
+      <c r="C63" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="208"/>
-      <c r="E63" s="209"/>
+      <c r="D63" s="212"/>
+      <c r="E63" s="213"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="207" t="s">
+      <c r="C64" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="208"/>
-      <c r="E64" s="209"/>
+      <c r="D64" s="212"/>
+      <c r="E64" s="213"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="204" t="s">
+      <c r="C65" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="205"/>
-      <c r="E65" s="206"/>
+      <c r="D65" s="206"/>
+      <c r="E65" s="207"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -9252,200 +9254,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="235"/>
-      <c r="C67" s="235"/>
-      <c r="D67" s="235"/>
-      <c r="E67" s="235"/>
+      <c r="B67" s="208"/>
+      <c r="C67" s="208"/>
+      <c r="D67" s="208"/>
+      <c r="E67" s="208"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="234"/>
-      <c r="C68" s="234"/>
-      <c r="D68" s="234"/>
-      <c r="E68" s="234"/>
+      <c r="B68" s="204"/>
+      <c r="C68" s="204"/>
+      <c r="D68" s="204"/>
+      <c r="E68" s="204"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="234"/>
-      <c r="C69" s="234"/>
-      <c r="D69" s="234"/>
-      <c r="E69" s="234"/>
+      <c r="B69" s="204"/>
+      <c r="C69" s="204"/>
+      <c r="D69" s="204"/>
+      <c r="E69" s="204"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="234"/>
-      <c r="C70" s="234"/>
-      <c r="D70" s="234"/>
-      <c r="E70" s="234"/>
+      <c r="B70" s="204"/>
+      <c r="C70" s="204"/>
+      <c r="D70" s="204"/>
+      <c r="E70" s="204"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="234"/>
-      <c r="C71" s="234"/>
-      <c r="D71" s="234"/>
-      <c r="E71" s="234"/>
+      <c r="B71" s="204"/>
+      <c r="C71" s="204"/>
+      <c r="D71" s="204"/>
+      <c r="E71" s="204"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="234"/>
-      <c r="C72" s="234"/>
-      <c r="D72" s="234"/>
-      <c r="E72" s="234"/>
+      <c r="B72" s="204"/>
+      <c r="C72" s="204"/>
+      <c r="D72" s="204"/>
+      <c r="E72" s="204"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="234"/>
-      <c r="C73" s="234"/>
-      <c r="D73" s="234"/>
-      <c r="E73" s="234"/>
+      <c r="B73" s="204"/>
+      <c r="C73" s="204"/>
+      <c r="D73" s="204"/>
+      <c r="E73" s="204"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="234"/>
-      <c r="C74" s="234"/>
-      <c r="D74" s="234"/>
-      <c r="E74" s="234"/>
+      <c r="B74" s="204"/>
+      <c r="C74" s="204"/>
+      <c r="D74" s="204"/>
+      <c r="E74" s="204"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="234"/>
-      <c r="C75" s="234"/>
-      <c r="D75" s="234"/>
-      <c r="E75" s="234"/>
+      <c r="B75" s="204"/>
+      <c r="C75" s="204"/>
+      <c r="D75" s="204"/>
+      <c r="E75" s="204"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="234"/>
-      <c r="C76" s="234"/>
-      <c r="D76" s="234"/>
-      <c r="E76" s="234"/>
+      <c r="B76" s="204"/>
+      <c r="C76" s="204"/>
+      <c r="D76" s="204"/>
+      <c r="E76" s="204"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="234"/>
-      <c r="C77" s="234"/>
-      <c r="D77" s="234"/>
-      <c r="E77" s="234"/>
+      <c r="B77" s="204"/>
+      <c r="C77" s="204"/>
+      <c r="D77" s="204"/>
+      <c r="E77" s="204"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="234"/>
-      <c r="C78" s="234"/>
-      <c r="D78" s="234"/>
-      <c r="E78" s="234"/>
+      <c r="B78" s="204"/>
+      <c r="C78" s="204"/>
+      <c r="D78" s="204"/>
+      <c r="E78" s="204"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="234"/>
-      <c r="C79" s="234"/>
-      <c r="D79" s="234"/>
-      <c r="E79" s="234"/>
+      <c r="B79" s="204"/>
+      <c r="C79" s="204"/>
+      <c r="D79" s="204"/>
+      <c r="E79" s="204"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="234"/>
-      <c r="C80" s="234"/>
-      <c r="D80" s="234"/>
-      <c r="E80" s="234"/>
+      <c r="B80" s="204"/>
+      <c r="C80" s="204"/>
+      <c r="D80" s="204"/>
+      <c r="E80" s="204"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="234"/>
-      <c r="C81" s="234"/>
-      <c r="D81" s="234"/>
-      <c r="E81" s="234"/>
+      <c r="B81" s="204"/>
+      <c r="C81" s="204"/>
+      <c r="D81" s="204"/>
+      <c r="E81" s="204"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="234"/>
-      <c r="C82" s="234"/>
-      <c r="D82" s="234"/>
-      <c r="E82" s="234"/>
+      <c r="B82" s="204"/>
+      <c r="C82" s="204"/>
+      <c r="D82" s="204"/>
+      <c r="E82" s="204"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="234"/>
-      <c r="C83" s="234"/>
-      <c r="D83" s="234"/>
-      <c r="E83" s="234"/>
+      <c r="B83" s="204"/>
+      <c r="C83" s="204"/>
+      <c r="D83" s="204"/>
+      <c r="E83" s="204"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="234"/>
-      <c r="C84" s="234"/>
-      <c r="D84" s="234"/>
-      <c r="E84" s="234"/>
+      <c r="B84" s="204"/>
+      <c r="C84" s="204"/>
+      <c r="D84" s="204"/>
+      <c r="E84" s="204"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="234"/>
-      <c r="C85" s="234"/>
-      <c r="D85" s="234"/>
-      <c r="E85" s="234"/>
+      <c r="B85" s="204"/>
+      <c r="C85" s="204"/>
+      <c r="D85" s="204"/>
+      <c r="E85" s="204"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="234"/>
-      <c r="C86" s="234"/>
-      <c r="D86" s="234"/>
-      <c r="E86" s="234"/>
+      <c r="B86" s="204"/>
+      <c r="C86" s="204"/>
+      <c r="D86" s="204"/>
+      <c r="E86" s="204"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -9458,27 +9460,40 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -9495,40 +9510,27 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9545,8 +9547,8 @@
   </sheetPr>
   <dimension ref="A3:Z54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView showGridLines="0" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -9568,22 +9570,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="246"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="236"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -9591,39 +9593,39 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="237" t="s">
+      <c r="B6" s="238" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="238"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="240" t="s">
+      <c r="C6" s="239"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="241" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="241"/>
-      <c r="G6" s="242"/>
-      <c r="H6" s="247"/>
-      <c r="I6" s="247"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="243"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="237"/>
       <c r="O6" s="136"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="238" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="240" t="s">
+      <c r="C7" s="239"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="241" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="241"/>
-      <c r="G7" s="242"/>
-      <c r="J7" s="236" t="s">
+      <c r="F7" s="242"/>
+      <c r="G7" s="243"/>
+      <c r="J7" s="244" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="236"/>
-      <c r="L7" s="236"/>
-      <c r="M7" s="236"/>
-      <c r="N7" s="236"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="244"/>
+      <c r="M7" s="244"/>
+      <c r="N7" s="244"/>
       <c r="O7" s="156">
         <f>SUM(K13:K50)</f>
         <v>104</v>
@@ -9631,24 +9633,24 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="237" t="s">
+      <c r="B8" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="240" t="str">
+      <c r="C8" s="239"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="241" t="str">
         <f>CONCATENATE(E6," , ",E7)</f>
         <v>Benji Santillan Torres , Carluis Oyola Laynes</v>
       </c>
-      <c r="F8" s="241"/>
-      <c r="G8" s="242"/>
-      <c r="J8" s="236" t="s">
+      <c r="F8" s="242"/>
+      <c r="G8" s="243"/>
+      <c r="J8" s="244" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="236"/>
-      <c r="L8" s="236"/>
-      <c r="M8" s="236"/>
-      <c r="N8" s="236"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="244"/>
+      <c r="M8" s="244"/>
+      <c r="N8" s="244"/>
       <c r="O8" s="156">
         <f>SUM(N13:N50)</f>
         <v>104</v>
@@ -9656,11 +9658,11 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="237" t="s">
+      <c r="B9" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="238"/>
-      <c r="D9" s="239"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="240"/>
       <c r="E9" s="123">
         <v>42555</v>
       </c>
@@ -9675,16 +9677,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="237" t="s">
+      <c r="B10" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="238"/>
-      <c r="D10" s="239"/>
-      <c r="E10" s="243" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="244"/>
-      <c r="G10" s="245"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="245" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="246"/>
+      <c r="G10" s="247"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -9798,7 +9800,7 @@
         <v>123</v>
       </c>
       <c r="F14" s="152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G14" s="155" t="s">
         <v>149</v>
@@ -9843,7 +9845,7 @@
         <v>123</v>
       </c>
       <c r="F15" s="153" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G15" s="155" t="s">
         <v>149</v>
@@ -9888,7 +9890,7 @@
         <v>123</v>
       </c>
       <c r="F16" s="152" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G16" s="155" t="s">
         <v>149</v>
@@ -9933,7 +9935,7 @@
         <v>123</v>
       </c>
       <c r="F17" s="199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G17" s="155" t="s">
         <v>149</v>
@@ -9978,7 +9980,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="199" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G18" s="155" t="s">
         <v>149</v>
@@ -10023,7 +10025,7 @@
         <v>124</v>
       </c>
       <c r="F19" s="199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G19" s="155" t="s">
         <v>149</v>
@@ -10068,7 +10070,7 @@
         <v>124</v>
       </c>
       <c r="F20" s="152" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G20" s="155" t="s">
         <v>149</v>
@@ -10113,7 +10115,7 @@
         <v>124</v>
       </c>
       <c r="F21" s="152" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G21" s="155" t="s">
         <v>149</v>
@@ -10158,7 +10160,7 @@
         <v>124</v>
       </c>
       <c r="F22" s="152" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G22" s="155" t="s">
         <v>149</v>
@@ -10203,7 +10205,7 @@
         <v>124</v>
       </c>
       <c r="F23" s="152" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G23" s="155" t="s">
         <v>149</v>
@@ -10248,7 +10250,7 @@
         <v>124</v>
       </c>
       <c r="F24" s="152" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G24" s="155" t="s">
         <v>149</v>
@@ -10428,7 +10430,7 @@
         <v>124</v>
       </c>
       <c r="F28" s="199" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G28" s="155" t="s">
         <v>147</v>
@@ -10474,7 +10476,7 @@
         <v>124</v>
       </c>
       <c r="F29" s="199" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G29" s="155" t="s">
         <v>149</v>
@@ -10566,7 +10568,7 @@
         <v>122</v>
       </c>
       <c r="F31" s="152" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G31" s="155" t="s">
         <v>147</v>
@@ -10612,7 +10614,7 @@
         <v>122</v>
       </c>
       <c r="F32" s="152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G32" s="155" t="s">
         <v>149</v>
@@ -10658,7 +10660,7 @@
         <v>122</v>
       </c>
       <c r="F33" s="199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G33" s="155" t="s">
         <v>149</v>
@@ -10704,7 +10706,7 @@
         <v>122</v>
       </c>
       <c r="F34" s="199" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G34" s="155" t="s">
         <v>149</v>
@@ -10842,7 +10844,7 @@
         <v>125</v>
       </c>
       <c r="F37" s="199" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G37" s="155" t="s">
         <v>150</v>
@@ -10934,7 +10936,7 @@
         <v>125</v>
       </c>
       <c r="F39" s="152" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G39" s="155" t="s">
         <v>150</v>
@@ -10980,7 +10982,7 @@
         <v>126</v>
       </c>
       <c r="F40" s="199" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G40" s="155" t="s">
         <v>149</v>
@@ -11026,7 +11028,7 @@
         <v>126</v>
       </c>
       <c r="F41" s="152" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G41" s="155" t="s">
         <v>149</v>
@@ -11072,7 +11074,7 @@
         <v>126</v>
       </c>
       <c r="F42" s="152" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G42" s="155" t="s">
         <v>149</v>
@@ -11118,7 +11120,7 @@
         <v>126</v>
       </c>
       <c r="F43" s="152" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G43" s="155" t="s">
         <v>149</v>
@@ -11164,7 +11166,7 @@
         <v>126</v>
       </c>
       <c r="F44" s="152" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G44" s="155" t="s">
         <v>149</v>
@@ -11210,7 +11212,7 @@
         <v>126</v>
       </c>
       <c r="F45" s="152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G45" s="155" t="s">
         <v>149</v>
@@ -11256,7 +11258,7 @@
         <v>136</v>
       </c>
       <c r="F46" s="199" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G46" s="155" t="s">
         <v>149</v>
@@ -11302,7 +11304,7 @@
         <v>136</v>
       </c>
       <c r="F47" s="199" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G47" s="155" t="s">
         <v>149</v>
@@ -11348,7 +11350,7 @@
         <v>136</v>
       </c>
       <c r="F48" s="199" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G48" s="155" t="s">
         <v>149</v>
@@ -11394,7 +11396,7 @@
         <v>136</v>
       </c>
       <c r="F49" s="199" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G49" s="155" t="s">
         <v>149</v>
@@ -11439,7 +11441,7 @@
         <v>136</v>
       </c>
       <c r="F50" s="152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G50" s="155" t="s">
         <v>149</v>
@@ -11490,6 +11492,12 @@
   </sheetData>
   <autoFilter ref="B12:O50"/>
   <mergeCells count="13">
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B6:D6"/>
@@ -11497,12 +11505,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12421,7 +12423,7 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G19" s="93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H19" s="146" t="s">
         <v>113</v>
@@ -12474,7 +12476,7 @@
         <v>Marco Ataupillco</v>
       </c>
       <c r="G20" s="93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H20" s="146" t="s">
         <v>113</v>
@@ -12527,7 +12529,7 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H21" s="146" t="s">
         <v>113</v>
@@ -12580,7 +12582,7 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G22" s="93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H22" s="146" t="s">
         <v>113</v>
@@ -12633,7 +12635,7 @@
         <v>Marco Ataupillco</v>
       </c>
       <c r="G23" s="93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H23" s="146" t="s">
         <v>113</v>
@@ -12894,7 +12896,7 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G28" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H28" s="146" t="s">
         <v>113</v>
@@ -13690,7 +13692,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -13707,15 +13709,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="267" t="s">
+      <c r="C2" s="257" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
       <c r="J2" s="139"/>
       <c r="K2" s="139"/>
       <c r="L2" s="139"/>
@@ -13725,65 +13727,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="264" t="s">
+      <c r="C4" s="251" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="264"/>
-      <c r="E4" s="254" t="str">
+      <c r="D4" s="251"/>
+      <c r="E4" s="252" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Benji Santillan Torres</v>
       </c>
-      <c r="F4" s="255"/>
-      <c r="G4" s="255"/>
-      <c r="H4" s="255"/>
-      <c r="I4" s="256"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="253"/>
+      <c r="H4" s="253"/>
+      <c r="I4" s="254"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="265" t="str">
+      <c r="C5" s="255" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="254" t="str">
+      <c r="D5" s="256"/>
+      <c r="E5" s="252" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Carluis Oyola Laynes</v>
       </c>
-      <c r="F5" s="255"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="255"/>
-      <c r="I5" s="256"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="254"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="252" t="s">
+      <c r="C6" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="254" t="str">
+      <c r="D6" s="260"/>
+      <c r="E6" s="252" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Benji Santillan Torres , Carluis Oyola Laynes</v>
       </c>
-      <c r="F6" s="255"/>
-      <c r="G6" s="255"/>
-      <c r="H6" s="255"/>
-      <c r="I6" s="256"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="254"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="258" t="s">
+      <c r="C7" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="258"/>
-      <c r="E7" s="259">
+      <c r="D7" s="262"/>
+      <c r="E7" s="263">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42555</v>
       </c>
-      <c r="F7" s="260"/>
-      <c r="G7" s="261" t="s">
+      <c r="F7" s="264"/>
+      <c r="G7" s="265" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="262"/>
+      <c r="H7" s="266"/>
       <c r="I7" s="94">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42567</v>
@@ -13791,24 +13793,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="258" t="s">
+      <c r="C8" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="263"/>
-      <c r="E8" s="254" t="str">
+      <c r="D8" s="267"/>
+      <c r="E8" s="252" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>JULIO</v>
       </c>
-      <c r="F8" s="255"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="255"/>
-      <c r="I8" s="256"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="254"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="257" t="s">
+      <c r="C13" s="261" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="257"/>
+      <c r="D13" s="261"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -13890,10 +13892,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="251" t="s">
+      <c r="C26" s="258" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="251"/>
+      <c r="D26" s="258"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -13967,10 +13969,10 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="251" t="s">
+      <c r="C40" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="251"/>
+      <c r="D40" s="258"/>
       <c r="P40" s="137"/>
     </row>
     <row r="41" spans="3:16">
@@ -14001,10 +14003,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="251" t="s">
+      <c r="C57" s="258" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="251"/>
+      <c r="D57" s="258"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -14051,11 +14053,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -14067,6 +14064,11 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14086,8 +14088,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14160,7 +14162,7 @@
       </c>
       <c r="D4" s="103"/>
       <c r="E4" s="114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G4" s="99" t="s">
         <v>91</v>
@@ -14204,7 +14206,7 @@
       </c>
       <c r="D6" s="103"/>
       <c r="E6" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H6" s="103"/>
       <c r="I6" s="99" t="s">
@@ -14223,7 +14225,7 @@
       </c>
       <c r="D7" s="103"/>
       <c r="E7" s="114" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H7" s="103"/>
       <c r="I7" s="99" t="s">
@@ -14240,7 +14242,7 @@
       </c>
       <c r="D8" s="103"/>
       <c r="E8" s="114" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H8" s="103"/>
       <c r="I8" s="99" t="s">
@@ -14255,7 +14257,7 @@
       <c r="C9" s="189"/>
       <c r="D9" s="103"/>
       <c r="E9" s="114" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H9" s="103"/>
       <c r="I9" s="103"/>
@@ -14268,7 +14270,7 @@
       <c r="C10" s="129"/>
       <c r="D10" s="103"/>
       <c r="E10" s="114" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
@@ -14277,7 +14279,7 @@
       <c r="C11" s="129"/>
       <c r="D11" s="103"/>
       <c r="E11" s="114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
@@ -14286,7 +14288,7 @@
       <c r="C12" s="129"/>
       <c r="D12" s="103"/>
       <c r="E12" s="114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
@@ -14295,7 +14297,7 @@
       <c r="C13" s="129"/>
       <c r="D13" s="103"/>
       <c r="E13" s="126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
@@ -14304,7 +14306,7 @@
       <c r="C14" s="129"/>
       <c r="D14" s="103"/>
       <c r="E14" s="126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
@@ -14313,7 +14315,7 @@
       <c r="C15" s="129"/>
       <c r="D15" s="103"/>
       <c r="E15" s="126" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
@@ -14322,7 +14324,7 @@
       <c r="C16" s="129"/>
       <c r="D16" s="103"/>
       <c r="E16" s="126" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1">
@@ -14358,7 +14360,7 @@
       <c r="C20" s="129"/>
       <c r="D20" s="103"/>
       <c r="E20" s="126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
@@ -14367,7 +14369,7 @@
       <c r="C21" s="129"/>
       <c r="D21" s="103"/>
       <c r="E21" s="126" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
@@ -14385,7 +14387,7 @@
       <c r="C23" s="129"/>
       <c r="D23" s="103"/>
       <c r="E23" s="126" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
@@ -14394,7 +14396,7 @@
       <c r="C24" s="129"/>
       <c r="D24" s="103"/>
       <c r="E24" s="126" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1">
@@ -14412,7 +14414,7 @@
       <c r="C26" s="129"/>
       <c r="D26" s="103"/>
       <c r="E26" s="126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
@@ -14421,7 +14423,7 @@
       <c r="C27" s="129"/>
       <c r="D27" s="103"/>
       <c r="E27" s="126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
@@ -14439,7 +14441,7 @@
       <c r="C29" s="129"/>
       <c r="D29" s="103"/>
       <c r="E29" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1">
@@ -14457,7 +14459,7 @@
       <c r="C31" s="129"/>
       <c r="D31" s="103"/>
       <c r="E31" s="126" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1">
@@ -14484,7 +14486,7 @@
       <c r="C34" s="129"/>
       <c r="D34" s="103"/>
       <c r="E34" s="126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
@@ -14493,7 +14495,7 @@
       <c r="C35" s="129"/>
       <c r="D35" s="103"/>
       <c r="E35" s="127" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
@@ -14502,7 +14504,7 @@
       <c r="C36" s="129"/>
       <c r="D36" s="103"/>
       <c r="E36" s="126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
@@ -14511,7 +14513,7 @@
       <c r="C37" s="129"/>
       <c r="D37" s="103"/>
       <c r="E37" s="126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
@@ -14520,7 +14522,7 @@
       <c r="C38" s="129"/>
       <c r="D38" s="130"/>
       <c r="E38" s="126" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1">
@@ -14529,7 +14531,7 @@
       <c r="C39" s="129"/>
       <c r="D39" s="130"/>
       <c r="E39" s="128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
@@ -14538,7 +14540,7 @@
       <c r="C40" s="129"/>
       <c r="D40" s="131"/>
       <c r="E40" s="128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1">
@@ -14547,7 +14549,7 @@
       <c r="C41" s="129"/>
       <c r="D41" s="131"/>
       <c r="E41" s="128" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1">
@@ -14556,7 +14558,7 @@
       <c r="C42" s="129"/>
       <c r="D42" s="131"/>
       <c r="E42" s="128" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12.75" customHeight="1">
@@ -14565,7 +14567,7 @@
       <c r="C43" s="129"/>
       <c r="D43" s="131"/>
       <c r="E43" s="128" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/Area de Proceso PPQA/HGQA/HGQA_V0.3_2016_JULIO.xlsx
+++ b/Area de Proceso PPQA/HGQA/HGQA_V0.3_2016_JULIO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="17280" windowHeight="9195" tabRatio="642"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="17280" windowHeight="9195" tabRatio="642" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -688,9 +688,6 @@
     <t>GUINSTALL_V0.1_Guia de Instalacion</t>
   </si>
   <si>
-    <t>MANUSER_V0.1_Manual de Usuario</t>
-  </si>
-  <si>
     <t>INREQA_V0.2_Informe de Revisión General de Aseguramiento de Calidad</t>
   </si>
   <si>
@@ -809,6 +806,9 @@
   </si>
   <si>
     <t>INPRUIN_05_07_2016_Informe de Pruebas Internas</t>
+  </si>
+  <si>
+    <t>MANUSER_V0.2_Manual de Usuario</t>
   </si>
 </sst>
 </file>
@@ -2584,102 +2584,142 @@
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="28" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="28" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2689,46 +2729,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2741,22 +2741,61 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="33" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2767,45 +2806,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="33" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2919,7 +2919,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3130,9 +3129,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3190,7 +3187,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3296,7 +3292,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3659,9 +3654,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3682,9 +3675,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3705,9 +3696,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3728,9 +3717,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -3766,9 +3753,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4085,7 +4070,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4135,11 +4119,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="248641312"/>
-        <c:axId val="248641704"/>
+        <c:axId val="232918160"/>
+        <c:axId val="215316736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248641312"/>
+        <c:axId val="232918160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4179,7 +4163,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248641704"/>
+        <c:crossAx val="215316736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4189,7 +4173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248641704"/>
+        <c:axId val="215316736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4237,7 +4221,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248641312"/>
+        <c:crossAx val="232918160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4251,7 +4235,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4357,7 +4340,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4658,12 +4640,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="248642488"/>
-        <c:axId val="248642880"/>
+        <c:axId val="233004160"/>
+        <c:axId val="169807144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="248642488"/>
+        <c:axId val="233004160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4692,7 +4674,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4753,7 +4734,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248642880"/>
+        <c:crossAx val="169807144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4763,7 +4744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248642880"/>
+        <c:axId val="169807144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4868,7 +4849,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248642488"/>
+        <c:crossAx val="233004160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4882,7 +4863,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8373,7 +8353,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -8468,7 +8448,7 @@
         <v>148</v>
       </c>
       <c r="G5" s="200" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H5" s="202" t="s">
         <v>149</v>
@@ -8493,7 +8473,7 @@
         <v>148</v>
       </c>
       <c r="G6" s="201" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H6" s="73" t="s">
         <v>149</v>
@@ -8518,7 +8498,7 @@
         <v>148</v>
       </c>
       <c r="G7" s="201" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H7" s="73" t="s">
         <v>149</v>
@@ -8590,22 +8570,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="82.5" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="224" t="s">
+      <c r="C2" s="216" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="225"/>
-      <c r="E2" s="226"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="218"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="186" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="224" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="232" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="233"/>
-      <c r="E3" s="234"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -8617,12 +8597,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="228"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="229"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="221"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -8645,10 +8625,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="81"/>
-      <c r="D8" s="230" t="s">
+      <c r="D8" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="231"/>
+      <c r="E8" s="223"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -8663,10 +8643,10 @@
         <v>88</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="235" t="s">
+      <c r="D10" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="235"/>
+      <c r="E10" s="230"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -8681,10 +8661,10 @@
         <v>88</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="235" t="s">
+      <c r="D12" s="230" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="235"/>
+      <c r="E12" s="230"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -8699,10 +8679,10 @@
         <v>88</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="235" t="s">
+      <c r="D14" s="230" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="235"/>
+      <c r="E14" s="230"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -8717,10 +8697,10 @@
         <v>88</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="235" t="s">
+      <c r="D16" s="230" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="235"/>
+      <c r="E16" s="230"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -8734,62 +8714,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="218" t="s">
+      <c r="B19" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="220"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="211"/>
+      <c r="E19" s="212"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="221" t="s">
+      <c r="C20" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="222"/>
-      <c r="E20" s="223"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="209" t="s">
+      <c r="C21" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="211"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="229"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="209" t="s">
+      <c r="C22" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="210"/>
-      <c r="E22" s="211"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="229"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="209" t="s">
+      <c r="C23" s="227" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="210"/>
-      <c r="E23" s="211"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="229"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="209" t="s">
+      <c r="C24" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="210"/>
-      <c r="E24" s="211"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="229"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -8802,31 +8782,31 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="218" t="s">
+      <c r="B27" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="219"/>
-      <c r="D27" s="219"/>
-      <c r="E27" s="220"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="212"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="221" t="s">
+      <c r="C28" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="222"/>
-      <c r="E28" s="223"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="215"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="215" t="s">
+      <c r="B29" s="231" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="216"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="217"/>
+      <c r="C29" s="232"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="233"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
@@ -8835,11 +8815,11 @@
       <c r="B30" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="205" t="s">
+      <c r="C30" s="204" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="206"/>
-      <c r="E30" s="207"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="206"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
@@ -8848,11 +8828,11 @@
       <c r="B31" s="158" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="205" t="s">
+      <c r="C31" s="204" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="206"/>
-      <c r="E31" s="207"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="206"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -8861,11 +8841,11 @@
       <c r="B32" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="205" t="s">
+      <c r="C32" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="206"/>
-      <c r="E32" s="207"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="206"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -8874,11 +8854,11 @@
       <c r="B33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="205" t="s">
+      <c r="C33" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="206"/>
-      <c r="E33" s="207"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="206"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -8887,174 +8867,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="205" t="s">
+      <c r="C34" s="204" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="206"/>
-      <c r="E34" s="207"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="206"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="205" t="s">
+      <c r="C35" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="206"/>
-      <c r="E35" s="207"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="206"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="215" t="s">
+      <c r="B36" s="231" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="216"/>
-      <c r="D36" s="216"/>
-      <c r="E36" s="217"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="232"/>
+      <c r="E36" s="233"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="205" t="s">
+      <c r="C37" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="206"/>
-      <c r="E37" s="207"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="206"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="205" t="s">
+      <c r="C38" s="204" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="206"/>
-      <c r="E38" s="207"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="206"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="205" t="s">
+      <c r="C39" s="204" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="206"/>
-      <c r="E39" s="207"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="206"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="205" t="s">
+      <c r="C40" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="206"/>
-      <c r="E40" s="207"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="206"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="205" t="s">
+      <c r="C41" s="204" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="206"/>
-      <c r="E41" s="207"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="206"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="205" t="s">
+      <c r="C42" s="204" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="206"/>
-      <c r="E42" s="207"/>
+      <c r="D42" s="205"/>
+      <c r="E42" s="206"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="205" t="s">
+      <c r="C43" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="206"/>
-      <c r="E43" s="207"/>
+      <c r="D43" s="205"/>
+      <c r="E43" s="206"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="205" t="s">
+      <c r="C44" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="206"/>
-      <c r="E44" s="207"/>
+      <c r="D44" s="205"/>
+      <c r="E44" s="206"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="205" t="s">
+      <c r="C45" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="206"/>
-      <c r="E45" s="207"/>
+      <c r="D45" s="205"/>
+      <c r="E45" s="206"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="205" t="s">
+      <c r="C46" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="206"/>
-      <c r="E46" s="207"/>
+      <c r="D46" s="205"/>
+      <c r="E46" s="206"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="205" t="s">
+      <c r="C47" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="206"/>
-      <c r="E47" s="207"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="206"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="205" t="s">
+      <c r="C48" s="204" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="206"/>
-      <c r="E48" s="207"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="206"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="205" t="s">
+      <c r="C49" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="206"/>
-      <c r="E49" s="207"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="206"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -9087,23 +9067,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="218" t="s">
+      <c r="B52" s="210" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="219"/>
-      <c r="D52" s="219"/>
-      <c r="E52" s="220"/>
+      <c r="C52" s="211"/>
+      <c r="D52" s="211"/>
+      <c r="E52" s="212"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="221" t="s">
+      <c r="C53" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="222"/>
-      <c r="E53" s="223"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="215"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -9118,132 +9098,132 @@
       <c r="B54" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="205" t="s">
+      <c r="C54" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="206"/>
-      <c r="E54" s="207"/>
+      <c r="D54" s="205"/>
+      <c r="E54" s="206"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="205" t="s">
+      <c r="C55" s="204" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="206"/>
-      <c r="E55" s="207"/>
+      <c r="D55" s="205"/>
+      <c r="E55" s="206"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="205" t="s">
+      <c r="C56" s="204" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="206"/>
-      <c r="E56" s="207"/>
+      <c r="D56" s="205"/>
+      <c r="E56" s="206"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="205" t="s">
+      <c r="C57" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="212"/>
-      <c r="E57" s="213"/>
+      <c r="D57" s="208"/>
+      <c r="E57" s="209"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="205" t="s">
+      <c r="C58" s="204" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="212"/>
-      <c r="E58" s="213"/>
+      <c r="D58" s="208"/>
+      <c r="E58" s="209"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="205" t="s">
+      <c r="C59" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="212"/>
-      <c r="E59" s="213"/>
+      <c r="D59" s="208"/>
+      <c r="E59" s="209"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="205" t="s">
+      <c r="C60" s="204" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="212"/>
-      <c r="E60" s="213"/>
+      <c r="D60" s="208"/>
+      <c r="E60" s="209"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="214" t="s">
+      <c r="C61" s="207" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="212"/>
-      <c r="E61" s="213"/>
+      <c r="D61" s="208"/>
+      <c r="E61" s="209"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="205" t="s">
+      <c r="C62" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="212"/>
-      <c r="E62" s="213"/>
+      <c r="D62" s="208"/>
+      <c r="E62" s="209"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="214" t="s">
+      <c r="C63" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="212"/>
-      <c r="E63" s="213"/>
+      <c r="D63" s="208"/>
+      <c r="E63" s="209"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="214" t="s">
+      <c r="C64" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="212"/>
-      <c r="E64" s="213"/>
+      <c r="D64" s="208"/>
+      <c r="E64" s="209"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="205" t="s">
+      <c r="C65" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="206"/>
-      <c r="E65" s="207"/>
+      <c r="D65" s="205"/>
+      <c r="E65" s="206"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -9254,200 +9234,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="208"/>
-      <c r="C67" s="208"/>
-      <c r="D67" s="208"/>
-      <c r="E67" s="208"/>
+      <c r="B67" s="235"/>
+      <c r="C67" s="235"/>
+      <c r="D67" s="235"/>
+      <c r="E67" s="235"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="204"/>
-      <c r="C68" s="204"/>
-      <c r="D68" s="204"/>
-      <c r="E68" s="204"/>
+      <c r="B68" s="234"/>
+      <c r="C68" s="234"/>
+      <c r="D68" s="234"/>
+      <c r="E68" s="234"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="204"/>
-      <c r="C69" s="204"/>
-      <c r="D69" s="204"/>
-      <c r="E69" s="204"/>
+      <c r="B69" s="234"/>
+      <c r="C69" s="234"/>
+      <c r="D69" s="234"/>
+      <c r="E69" s="234"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="204"/>
-      <c r="C70" s="204"/>
-      <c r="D70" s="204"/>
-      <c r="E70" s="204"/>
+      <c r="B70" s="234"/>
+      <c r="C70" s="234"/>
+      <c r="D70" s="234"/>
+      <c r="E70" s="234"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="204"/>
-      <c r="C71" s="204"/>
-      <c r="D71" s="204"/>
-      <c r="E71" s="204"/>
+      <c r="B71" s="234"/>
+      <c r="C71" s="234"/>
+      <c r="D71" s="234"/>
+      <c r="E71" s="234"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="204"/>
-      <c r="C72" s="204"/>
-      <c r="D72" s="204"/>
-      <c r="E72" s="204"/>
+      <c r="B72" s="234"/>
+      <c r="C72" s="234"/>
+      <c r="D72" s="234"/>
+      <c r="E72" s="234"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="204"/>
-      <c r="C73" s="204"/>
-      <c r="D73" s="204"/>
-      <c r="E73" s="204"/>
+      <c r="B73" s="234"/>
+      <c r="C73" s="234"/>
+      <c r="D73" s="234"/>
+      <c r="E73" s="234"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="204"/>
-      <c r="C74" s="204"/>
-      <c r="D74" s="204"/>
-      <c r="E74" s="204"/>
+      <c r="B74" s="234"/>
+      <c r="C74" s="234"/>
+      <c r="D74" s="234"/>
+      <c r="E74" s="234"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="204"/>
-      <c r="C75" s="204"/>
-      <c r="D75" s="204"/>
-      <c r="E75" s="204"/>
+      <c r="B75" s="234"/>
+      <c r="C75" s="234"/>
+      <c r="D75" s="234"/>
+      <c r="E75" s="234"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="204"/>
-      <c r="C76" s="204"/>
-      <c r="D76" s="204"/>
-      <c r="E76" s="204"/>
+      <c r="B76" s="234"/>
+      <c r="C76" s="234"/>
+      <c r="D76" s="234"/>
+      <c r="E76" s="234"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="204"/>
-      <c r="C77" s="204"/>
-      <c r="D77" s="204"/>
-      <c r="E77" s="204"/>
+      <c r="B77" s="234"/>
+      <c r="C77" s="234"/>
+      <c r="D77" s="234"/>
+      <c r="E77" s="234"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="204"/>
-      <c r="C78" s="204"/>
-      <c r="D78" s="204"/>
-      <c r="E78" s="204"/>
+      <c r="B78" s="234"/>
+      <c r="C78" s="234"/>
+      <c r="D78" s="234"/>
+      <c r="E78" s="234"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="204"/>
-      <c r="C79" s="204"/>
-      <c r="D79" s="204"/>
-      <c r="E79" s="204"/>
+      <c r="B79" s="234"/>
+      <c r="C79" s="234"/>
+      <c r="D79" s="234"/>
+      <c r="E79" s="234"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="204"/>
-      <c r="C80" s="204"/>
-      <c r="D80" s="204"/>
-      <c r="E80" s="204"/>
+      <c r="B80" s="234"/>
+      <c r="C80" s="234"/>
+      <c r="D80" s="234"/>
+      <c r="E80" s="234"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="204"/>
-      <c r="C81" s="204"/>
-      <c r="D81" s="204"/>
-      <c r="E81" s="204"/>
+      <c r="B81" s="234"/>
+      <c r="C81" s="234"/>
+      <c r="D81" s="234"/>
+      <c r="E81" s="234"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="204"/>
-      <c r="C82" s="204"/>
-      <c r="D82" s="204"/>
-      <c r="E82" s="204"/>
+      <c r="B82" s="234"/>
+      <c r="C82" s="234"/>
+      <c r="D82" s="234"/>
+      <c r="E82" s="234"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="204"/>
-      <c r="C83" s="204"/>
-      <c r="D83" s="204"/>
-      <c r="E83" s="204"/>
+      <c r="B83" s="234"/>
+      <c r="C83" s="234"/>
+      <c r="D83" s="234"/>
+      <c r="E83" s="234"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="204"/>
-      <c r="C84" s="204"/>
-      <c r="D84" s="204"/>
-      <c r="E84" s="204"/>
+      <c r="B84" s="234"/>
+      <c r="C84" s="234"/>
+      <c r="D84" s="234"/>
+      <c r="E84" s="234"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="204"/>
-      <c r="C85" s="204"/>
-      <c r="D85" s="204"/>
-      <c r="E85" s="204"/>
+      <c r="B85" s="234"/>
+      <c r="C85" s="234"/>
+      <c r="D85" s="234"/>
+      <c r="E85" s="234"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="204"/>
-      <c r="C86" s="204"/>
-      <c r="D86" s="204"/>
-      <c r="E86" s="204"/>
+      <c r="B86" s="234"/>
+      <c r="C86" s="234"/>
+      <c r="D86" s="234"/>
+      <c r="E86" s="234"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -9460,40 +9440,27 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -9510,27 +9477,40 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9547,8 +9527,8 @@
   </sheetPr>
   <dimension ref="A3:Z54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -9570,22 +9550,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="236" t="s">
+      <c r="B3" s="246" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="236"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="246"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -9593,39 +9573,39 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="238" t="s">
+      <c r="B6" s="237" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="239"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="241" t="s">
+      <c r="C6" s="238"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="240" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="242"/>
-      <c r="G6" s="243"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="237"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="247"/>
+      <c r="I6" s="247"/>
       <c r="O6" s="136"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="238" t="s">
+      <c r="B7" s="237" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="241" t="s">
+      <c r="C7" s="238"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="240" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="242"/>
-      <c r="G7" s="243"/>
-      <c r="J7" s="244" t="s">
+      <c r="F7" s="241"/>
+      <c r="G7" s="242"/>
+      <c r="J7" s="236" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="244"/>
-      <c r="L7" s="244"/>
-      <c r="M7" s="244"/>
-      <c r="N7" s="244"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="236"/>
+      <c r="N7" s="236"/>
       <c r="O7" s="156">
         <f>SUM(K13:K50)</f>
         <v>104</v>
@@ -9633,24 +9613,24 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="238" t="s">
+      <c r="B8" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="241" t="str">
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="240" t="str">
         <f>CONCATENATE(E6," , ",E7)</f>
         <v>Benji Santillan Torres , Carluis Oyola Laynes</v>
       </c>
-      <c r="F8" s="242"/>
-      <c r="G8" s="243"/>
-      <c r="J8" s="244" t="s">
+      <c r="F8" s="241"/>
+      <c r="G8" s="242"/>
+      <c r="J8" s="236" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="244"/>
-      <c r="L8" s="244"/>
-      <c r="M8" s="244"/>
-      <c r="N8" s="244"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="236"/>
+      <c r="M8" s="236"/>
+      <c r="N8" s="236"/>
       <c r="O8" s="156">
         <f>SUM(N13:N50)</f>
         <v>104</v>
@@ -9658,11 +9638,11 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="238" t="s">
+      <c r="B9" s="237" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="239"/>
-      <c r="D9" s="240"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="239"/>
       <c r="E9" s="123">
         <v>42555</v>
       </c>
@@ -9677,16 +9657,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="238" t="s">
+      <c r="B10" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="239"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="245" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="246"/>
-      <c r="G10" s="247"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="239"/>
+      <c r="E10" s="243" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="244"/>
+      <c r="G10" s="245"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -9800,7 +9780,7 @@
         <v>123</v>
       </c>
       <c r="F14" s="152" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G14" s="155" t="s">
         <v>149</v>
@@ -9845,7 +9825,7 @@
         <v>123</v>
       </c>
       <c r="F15" s="153" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G15" s="155" t="s">
         <v>149</v>
@@ -9890,7 +9870,7 @@
         <v>123</v>
       </c>
       <c r="F16" s="152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G16" s="155" t="s">
         <v>149</v>
@@ -9935,7 +9915,7 @@
         <v>123</v>
       </c>
       <c r="F17" s="199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G17" s="155" t="s">
         <v>149</v>
@@ -9980,7 +9960,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="199" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G18" s="155" t="s">
         <v>149</v>
@@ -10025,7 +10005,7 @@
         <v>124</v>
       </c>
       <c r="F19" s="199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G19" s="155" t="s">
         <v>149</v>
@@ -10070,7 +10050,7 @@
         <v>124</v>
       </c>
       <c r="F20" s="152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G20" s="155" t="s">
         <v>149</v>
@@ -10115,7 +10095,7 @@
         <v>124</v>
       </c>
       <c r="F21" s="152" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G21" s="155" t="s">
         <v>149</v>
@@ -10160,7 +10140,7 @@
         <v>124</v>
       </c>
       <c r="F22" s="152" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G22" s="155" t="s">
         <v>149</v>
@@ -10205,7 +10185,7 @@
         <v>124</v>
       </c>
       <c r="F23" s="152" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G23" s="155" t="s">
         <v>149</v>
@@ -10250,7 +10230,7 @@
         <v>124</v>
       </c>
       <c r="F24" s="152" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G24" s="155" t="s">
         <v>149</v>
@@ -10375,43 +10355,43 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C27" s="190">
+      <c r="C27" s="159">
         <v>1</v>
       </c>
-      <c r="D27" s="191" t="s">
+      <c r="D27" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="192" t="s">
+      <c r="E27" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="193" t="s">
-        <v>168</v>
-      </c>
-      <c r="G27" s="194" t="s">
+      <c r="F27" s="199" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="H27" s="194" t="s">
+      <c r="H27" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="I27" s="198">
+      <c r="I27" s="179">
         <v>42558</v>
       </c>
-      <c r="J27" s="198">
+      <c r="J27" s="179">
         <v>42558</v>
       </c>
-      <c r="K27" s="195">
+      <c r="K27" s="121">
         <v>3</v>
       </c>
-      <c r="L27" s="198">
+      <c r="L27" s="179">
         <v>42558</v>
       </c>
-      <c r="M27" s="198">
+      <c r="M27" s="179">
         <v>42558</v>
       </c>
-      <c r="N27" s="195">
+      <c r="N27" s="121">
         <v>3</v>
       </c>
-      <c r="O27" s="196" t="s">
+      <c r="O27" s="122" t="s">
         <v>157</v>
       </c>
     </row>
@@ -10430,7 +10410,7 @@
         <v>124</v>
       </c>
       <c r="F28" s="199" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G28" s="155" t="s">
         <v>147</v>
@@ -10476,7 +10456,7 @@
         <v>124</v>
       </c>
       <c r="F29" s="199" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G29" s="155" t="s">
         <v>149</v>
@@ -10568,7 +10548,7 @@
         <v>122</v>
       </c>
       <c r="F31" s="152" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G31" s="155" t="s">
         <v>147</v>
@@ -10614,7 +10594,7 @@
         <v>122</v>
       </c>
       <c r="F32" s="152" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G32" s="155" t="s">
         <v>149</v>
@@ -10660,7 +10640,7 @@
         <v>122</v>
       </c>
       <c r="F33" s="199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G33" s="155" t="s">
         <v>149</v>
@@ -10706,7 +10686,7 @@
         <v>122</v>
       </c>
       <c r="F34" s="199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G34" s="155" t="s">
         <v>149</v>
@@ -10752,7 +10732,7 @@
         <v>122</v>
       </c>
       <c r="F35" s="152" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G35" s="155" t="s">
         <v>149</v>
@@ -10798,7 +10778,7 @@
         <v>122</v>
       </c>
       <c r="F36" s="199" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G36" s="155" t="s">
         <v>149</v>
@@ -10844,7 +10824,7 @@
         <v>125</v>
       </c>
       <c r="F37" s="199" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G37" s="155" t="s">
         <v>150</v>
@@ -10890,7 +10870,7 @@
         <v>125</v>
       </c>
       <c r="F38" s="199" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G38" s="155" t="s">
         <v>150</v>
@@ -10936,7 +10916,7 @@
         <v>125</v>
       </c>
       <c r="F39" s="152" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G39" s="155" t="s">
         <v>150</v>
@@ -10982,7 +10962,7 @@
         <v>126</v>
       </c>
       <c r="F40" s="199" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G40" s="155" t="s">
         <v>149</v>
@@ -11028,7 +11008,7 @@
         <v>126</v>
       </c>
       <c r="F41" s="152" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G41" s="155" t="s">
         <v>149</v>
@@ -11074,7 +11054,7 @@
         <v>126</v>
       </c>
       <c r="F42" s="152" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G42" s="155" t="s">
         <v>149</v>
@@ -11120,7 +11100,7 @@
         <v>126</v>
       </c>
       <c r="F43" s="152" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G43" s="155" t="s">
         <v>149</v>
@@ -11166,7 +11146,7 @@
         <v>126</v>
       </c>
       <c r="F44" s="152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G44" s="155" t="s">
         <v>149</v>
@@ -11212,7 +11192,7 @@
         <v>126</v>
       </c>
       <c r="F45" s="152" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G45" s="155" t="s">
         <v>149</v>
@@ -11258,7 +11238,7 @@
         <v>136</v>
       </c>
       <c r="F46" s="199" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G46" s="155" t="s">
         <v>149</v>
@@ -11304,7 +11284,7 @@
         <v>136</v>
       </c>
       <c r="F47" s="199" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G47" s="155" t="s">
         <v>149</v>
@@ -11350,7 +11330,7 @@
         <v>136</v>
       </c>
       <c r="F48" s="199" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G48" s="155" t="s">
         <v>149</v>
@@ -11396,7 +11376,7 @@
         <v>136</v>
       </c>
       <c r="F49" s="199" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G49" s="155" t="s">
         <v>149</v>
@@ -11441,7 +11421,7 @@
         <v>136</v>
       </c>
       <c r="F50" s="152" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G50" s="155" t="s">
         <v>149</v>
@@ -11492,12 +11472,6 @@
   </sheetData>
   <autoFilter ref="B12:O50"/>
   <mergeCells count="13">
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B6:D6"/>
@@ -11505,6 +11479,12 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="E7:G7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12423,7 +12403,7 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G19" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H19" s="146" t="s">
         <v>113</v>
@@ -12476,7 +12456,7 @@
         <v>Marco Ataupillco</v>
       </c>
       <c r="G20" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20" s="146" t="s">
         <v>113</v>
@@ -12529,7 +12509,7 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H21" s="146" t="s">
         <v>113</v>
@@ -12582,7 +12562,7 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G22" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" s="146" t="s">
         <v>113</v>
@@ -12635,7 +12615,7 @@
         <v>Marco Ataupillco</v>
       </c>
       <c r="G23" s="93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H23" s="146" t="s">
         <v>113</v>
@@ -12896,7 +12876,7 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G28" s="93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H28" s="146" t="s">
         <v>113</v>
@@ -13709,15 +13689,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="257" t="s">
+      <c r="C2" s="267" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="257"/>
-      <c r="E2" s="257"/>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="257"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
       <c r="J2" s="139"/>
       <c r="K2" s="139"/>
       <c r="L2" s="139"/>
@@ -13727,65 +13707,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="251" t="s">
+      <c r="C4" s="264" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="251"/>
-      <c r="E4" s="252" t="str">
+      <c r="D4" s="264"/>
+      <c r="E4" s="254" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Benji Santillan Torres</v>
       </c>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
-      <c r="H4" s="253"/>
-      <c r="I4" s="254"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="255"/>
+      <c r="I4" s="256"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="255" t="str">
+      <c r="C5" s="265" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="256"/>
-      <c r="E5" s="252" t="str">
+      <c r="D5" s="266"/>
+      <c r="E5" s="254" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Carluis Oyola Laynes</v>
       </c>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="254"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="255"/>
+      <c r="H5" s="255"/>
+      <c r="I5" s="256"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="252" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="260"/>
-      <c r="E6" s="252" t="str">
+      <c r="D6" s="253"/>
+      <c r="E6" s="254" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Benji Santillan Torres , Carluis Oyola Laynes</v>
       </c>
-      <c r="F6" s="253"/>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="254"/>
+      <c r="F6" s="255"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="256"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="262" t="s">
+      <c r="C7" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="262"/>
-      <c r="E7" s="263">
+      <c r="D7" s="258"/>
+      <c r="E7" s="259">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42555</v>
       </c>
-      <c r="F7" s="264"/>
-      <c r="G7" s="265" t="s">
+      <c r="F7" s="260"/>
+      <c r="G7" s="261" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="266"/>
+      <c r="H7" s="262"/>
       <c r="I7" s="94">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42567</v>
@@ -13793,24 +13773,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="262" t="s">
+      <c r="C8" s="258" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="267"/>
-      <c r="E8" s="252" t="str">
+      <c r="D8" s="263"/>
+      <c r="E8" s="254" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>JULIO</v>
       </c>
-      <c r="F8" s="253"/>
-      <c r="G8" s="253"/>
-      <c r="H8" s="253"/>
-      <c r="I8" s="254"/>
+      <c r="F8" s="255"/>
+      <c r="G8" s="255"/>
+      <c r="H8" s="255"/>
+      <c r="I8" s="256"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="261" t="s">
+      <c r="C13" s="257" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="261"/>
+      <c r="D13" s="257"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -13892,10 +13872,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="258" t="s">
+      <c r="C26" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="258"/>
+      <c r="D26" s="251"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -13969,10 +13949,10 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="258" t="s">
+      <c r="C40" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="258"/>
+      <c r="D40" s="251"/>
       <c r="P40" s="137"/>
     </row>
     <row r="41" spans="3:16">
@@ -14003,10 +13983,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="258" t="s">
+      <c r="C57" s="251" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="258"/>
+      <c r="D57" s="251"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -14053,6 +14033,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -14064,11 +14049,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14089,7 +14069,7 @@
   <dimension ref="A2:K44"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14162,7 +14142,7 @@
       </c>
       <c r="D4" s="103"/>
       <c r="E4" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G4" s="99" t="s">
         <v>91</v>
@@ -14206,7 +14186,7 @@
       </c>
       <c r="D6" s="103"/>
       <c r="E6" s="114" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H6" s="103"/>
       <c r="I6" s="99" t="s">
@@ -14225,7 +14205,7 @@
       </c>
       <c r="D7" s="103"/>
       <c r="E7" s="114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H7" s="103"/>
       <c r="I7" s="99" t="s">
@@ -14242,7 +14222,7 @@
       </c>
       <c r="D8" s="103"/>
       <c r="E8" s="114" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H8" s="103"/>
       <c r="I8" s="99" t="s">
@@ -14257,7 +14237,7 @@
       <c r="C9" s="189"/>
       <c r="D9" s="103"/>
       <c r="E9" s="114" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H9" s="103"/>
       <c r="I9" s="103"/>
@@ -14270,7 +14250,7 @@
       <c r="C10" s="129"/>
       <c r="D10" s="103"/>
       <c r="E10" s="114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
@@ -14279,7 +14259,7 @@
       <c r="C11" s="129"/>
       <c r="D11" s="103"/>
       <c r="E11" s="114" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
@@ -14288,7 +14268,7 @@
       <c r="C12" s="129"/>
       <c r="D12" s="103"/>
       <c r="E12" s="114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
@@ -14297,7 +14277,7 @@
       <c r="C13" s="129"/>
       <c r="D13" s="103"/>
       <c r="E13" s="126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
@@ -14306,7 +14286,7 @@
       <c r="C14" s="129"/>
       <c r="D14" s="103"/>
       <c r="E14" s="126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
@@ -14315,7 +14295,7 @@
       <c r="C15" s="129"/>
       <c r="D15" s="103"/>
       <c r="E15" s="126" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
@@ -14324,7 +14304,7 @@
       <c r="C16" s="129"/>
       <c r="D16" s="103"/>
       <c r="E16" s="126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1">
@@ -14351,7 +14331,7 @@
       <c r="C19" s="129"/>
       <c r="D19" s="103"/>
       <c r="E19" s="126" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
@@ -14360,7 +14340,7 @@
       <c r="C20" s="129"/>
       <c r="D20" s="103"/>
       <c r="E20" s="126" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
@@ -14369,7 +14349,7 @@
       <c r="C21" s="129"/>
       <c r="D21" s="103"/>
       <c r="E21" s="126" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
@@ -14387,7 +14367,7 @@
       <c r="C23" s="129"/>
       <c r="D23" s="103"/>
       <c r="E23" s="126" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
@@ -14396,7 +14376,7 @@
       <c r="C24" s="129"/>
       <c r="D24" s="103"/>
       <c r="E24" s="126" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1">
@@ -14405,7 +14385,7 @@
       <c r="C25" s="129"/>
       <c r="D25" s="103"/>
       <c r="E25" s="126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1">
@@ -14414,7 +14394,7 @@
       <c r="C26" s="129"/>
       <c r="D26" s="103"/>
       <c r="E26" s="126" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
@@ -14423,7 +14403,7 @@
       <c r="C27" s="129"/>
       <c r="D27" s="103"/>
       <c r="E27" s="126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
@@ -14432,7 +14412,7 @@
       <c r="C28" s="129"/>
       <c r="D28" s="103"/>
       <c r="E28" s="126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1">
@@ -14441,7 +14421,7 @@
       <c r="C29" s="129"/>
       <c r="D29" s="103"/>
       <c r="E29" s="126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1">
@@ -14450,7 +14430,7 @@
       <c r="C30" s="129"/>
       <c r="D30" s="103"/>
       <c r="E30" s="126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
@@ -14459,7 +14439,7 @@
       <c r="C31" s="129"/>
       <c r="D31" s="103"/>
       <c r="E31" s="126" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1">
@@ -14486,7 +14466,7 @@
       <c r="C34" s="129"/>
       <c r="D34" s="103"/>
       <c r="E34" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
@@ -14495,7 +14475,7 @@
       <c r="C35" s="129"/>
       <c r="D35" s="103"/>
       <c r="E35" s="127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
@@ -14504,7 +14484,7 @@
       <c r="C36" s="129"/>
       <c r="D36" s="103"/>
       <c r="E36" s="126" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
@@ -14513,7 +14493,7 @@
       <c r="C37" s="129"/>
       <c r="D37" s="103"/>
       <c r="E37" s="126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
@@ -14522,7 +14502,7 @@
       <c r="C38" s="129"/>
       <c r="D38" s="130"/>
       <c r="E38" s="126" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1">
@@ -14531,7 +14511,7 @@
       <c r="C39" s="129"/>
       <c r="D39" s="130"/>
       <c r="E39" s="128" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
@@ -14540,7 +14520,7 @@
       <c r="C40" s="129"/>
       <c r="D40" s="131"/>
       <c r="E40" s="128" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1">
@@ -14549,7 +14529,7 @@
       <c r="C41" s="129"/>
       <c r="D41" s="131"/>
       <c r="E41" s="128" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1">
@@ -14558,7 +14538,7 @@
       <c r="C42" s="129"/>
       <c r="D42" s="131"/>
       <c r="E42" s="128" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12.75" customHeight="1">
@@ -14567,7 +14547,7 @@
       <c r="C43" s="129"/>
       <c r="D43" s="131"/>
       <c r="E43" s="128" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:5">
